--- a/docs/mcode-r4/onco-core-GeneticVariantTested.xlsx
+++ b/docs/mcode-r4/onco-core-GeneticVariantTested.xlsx
@@ -468,7 +468,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest|ServiceRequest)
+    <t xml:space="preserve">Reference(MedicationRequest|ServiceRequest)
 </t>
   </si>
   <si>
@@ -671,7 +671,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/observation-category</t>
+    <t>http://terminology.hl7.org/CodeSystem/observation-category</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -1290,7 +1290,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-device)
+    <t xml:space="preserve">Reference(Device)
 </t>
   </si>
   <si>
@@ -1512,7 +1512,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference|Media|QuestionnaireResponse|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Observation)
+    <t xml:space="preserve">Reference(DocumentReference|Media|QuestionnaireResponse|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Observation)
 </t>
   </si>
   <si>

--- a/docs/mcode-r4/onco-core-GeneticVariantTested.xlsx
+++ b/docs/mcode-r4/onco-core-GeneticVariantTested.xlsx
@@ -162,7 +162,7 @@
     <t>onco-core-GeneticVariantTested</t>
   </si>
   <si>
-    <t>A test for a specific mutation on a particular gene.</t>
+    <t>A test for a specific mutation on a particular gene. This profile is used to record whether a single discrete variant tested is present or absent (which mCODE denotes as positive or negative respectively).</t>
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
@@ -357,7 +357,7 @@
     <t>genestudied</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/onco-core-GeneStudied-extension}
+    <t xml:space="preserve">Extension {observation-geneticsGene}
 </t>
   </si>
   <si>

--- a/docs/mcode-r4/onco-core-GeneticVariantTested.xlsx
+++ b/docs/mcode-r4/onco-core-GeneticVariantTested.xlsx
@@ -8969,7 +8969,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>46</v>
@@ -9809,7 +9809,7 @@
         <v>44</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>46</v>
